--- a/Database/January2016Flash.xlsx
+++ b/Database/January2016Flash.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo 1\Documents\APC\SYSADD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo 1\Documents\GitHub\Forecast-Module-1\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>roomRevenueActual</t>
   </si>
@@ -189,9 +186,6 @@
   </si>
   <si>
     <t>roomRevParVVLY</t>
-  </si>
-  <si>
-    <t>monthYear_id</t>
   </si>
 </sst>
 </file>
@@ -267,18 +261,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,113 +582,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="V1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="W1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="X1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Y1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>33</v>
@@ -765,80 +756,62 @@
       <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>354</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8091</v>
+      </c>
+      <c r="C2" s="2">
+        <v>27838</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2957</v>
+      </c>
       <c r="E2">
-        <v>354</v>
+        <v>423</v>
       </c>
       <c r="F2" s="2">
+        <v>8060</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5739</v>
+      </c>
+      <c r="H2" s="2">
+        <v>16329</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7314</v>
+      </c>
+      <c r="J2">
+        <v>154</v>
+      </c>
+      <c r="K2" s="2">
         <v>8091</v>
       </c>
-      <c r="G2" s="3"/>
       <c r="L2" s="2">
-        <v>27838</v>
+        <v>5295</v>
       </c>
       <c r="M2" s="2">
-        <v>2957</v>
-      </c>
-      <c r="N2">
-        <v>423</v>
-      </c>
-      <c r="O2" s="2">
-        <v>8060</v>
+        <v>16430</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4659</v>
+      </c>
+      <c r="O2">
+        <v>180</v>
       </c>
       <c r="P2" s="2">
-        <v>5739</v>
-      </c>
-      <c r="U2" s="2">
-        <v>16329</v>
-      </c>
-      <c r="V2" s="2">
-        <v>7314</v>
-      </c>
-      <c r="W2">
-        <v>154</v>
-      </c>
-      <c r="X2" s="2">
         <v>8091</v>
       </c>
-      <c r="Y2" s="2">
-        <v>5295</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>16430</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>4659</v>
-      </c>
-      <c r="AF2">
-        <v>180</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>8091</v>
-      </c>
-      <c r="AH2" s="2">
+      <c r="Q2" s="2">
         <v>5087</v>
       </c>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/January2016Flash.xlsx
+++ b/Database/January2016Flash.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>roomRevenueActual</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>roomRevParVVLY</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>monthYear_id</t>
   </si>
 </sst>
 </file>
@@ -582,231 +588,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>354</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>8091</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>27838</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>2957</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>423</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>8060</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>5739</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>16329</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>7314</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>154</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>8091</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>5295</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>16430</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>4659</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>180</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>8091</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <v>5087</v>
       </c>
     </row>
